--- a/flats.xlsx
+++ b/flats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisi4ka/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisi4ka/IdeaProjects/IS-lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C2DD9F-109D-964E-A0FA-ED89A68A4562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3FFB25-496F-CC4A-9247-5F6B246A67D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1900" windowWidth="30240" windowHeight="12120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="1900" windowWidth="25800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flats" sheetId="1" r:id="rId1"/>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -542,10 +542,10 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>3529</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -577,10 +577,10 @@
         <v>16</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>3529</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -612,10 +612,10 @@
         <v>17</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>3529</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>5757</v>
       </c>
     </row>
   </sheetData>
@@ -20057,7 +20057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38043838-5E22-4B64-9915-1B2A911E7DAF}">
   <dimension ref="A1:B2879"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2858" workbookViewId="0">
+    <sheetView topLeftCell="A2858" workbookViewId="0">
       <selection activeCell="D2871" sqref="D2871"/>
     </sheetView>
   </sheetViews>

--- a/flats.xlsx
+++ b/flats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisi4ka/IdeaProjects/IS-lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3FFB25-496F-CC4A-9247-5F6B246A67D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC695FD-7186-5B48-B126-806D85477FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="1900" windowWidth="25800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -542,10 +542,10 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>3529</v>
+        <v>1765</v>
       </c>
       <c r="K2">
-        <v>5757</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -577,10 +577,10 @@
         <v>16</v>
       </c>
       <c r="J3">
-        <v>3529</v>
+        <v>1765</v>
       </c>
       <c r="K3">
-        <v>5757</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -612,10 +612,10 @@
         <v>17</v>
       </c>
       <c r="J4">
-        <v>3529</v>
+        <v>1765</v>
       </c>
       <c r="K4">
-        <v>5757</v>
+        <v>2879</v>
       </c>
     </row>
   </sheetData>
